--- a/autoConditions/test1Conditions.xlsx
+++ b/autoConditions/test1Conditions.xlsx
@@ -459,17 +459,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingaudio/11_tokiko2.wav</t>
+          <t>trainingaudio/20_tatito3.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trainingaudio/11_tokiko1.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -479,17 +479,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingaudio/04_kitoti2.wav</t>
+          <t>trainingaudio/14_pokoto1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trainingaudio/04_kitoti3.wav</t>
+          <t>trainingaudio/14_pokoto2.wav</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -499,77 +499,77 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingaudio/12_pokika3.wav</t>
+          <t>trainingaudio/24_takopa3.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trainingaudio/12_pokika2.wav</t>
+          <t>trainingaudio/24_takopa1.wav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainingaudio/02_pitito1.wav</t>
+          <t>trainingaudio/26_kapako1.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>trainingaudio/02_pitito3.wav</t>
+          <t>trainingaudio/26_kapako2.wav</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainingaudio/09_tipata2.wav</t>
+          <t>trainingaudio/19_papipi2.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trainingaudio/09_tipata1.wav</t>
+          <t>trainingaudio/19_papipi1.wav</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pngimages/09_plane.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata2.wav</t>
+          <t>trainingaudio/15_kopota3.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata3.wav</t>
+          <t>trainingaudio/15_kopota1.wav</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -579,17 +579,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainingaudio/20_tatito1.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trainingaudio/20_tatito3.wav</t>
+          <t>trainingaudio/04_kitoti1.wav</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -599,17 +599,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainingaudio/14_pokoto1.wav</t>
+          <t>trainingaudio/16_kotapi2.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trainingaudio/14_pokoto2.wav</t>
+          <t>trainingaudio/16_kotapi1.wav</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -619,37 +619,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainingaudio/24_takopa3.wav</t>
+          <t>trainingaudio/25_tapapi1.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trainingaudio/24_takopa1.wav</t>
+          <t>trainingaudio/25_tapapi2.wav</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/25_apple.png</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>trainingaudio/27_pakapa2.wav</t>
+          <t>trainingaudio/06_titoka2.wav</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trainingaudio/27_pakapa1.wav</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -659,37 +659,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>trainingaudio/19_papipi2.wav</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>trainingaudio/19_papipi1.wav</t>
+          <t>trainingaudio/18_popata1.wav</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>trainingaudio/03_kikita2.wav</t>
+          <t>trainingaudio/12_pokika1.wav</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>trainingaudio/03_kikita3.wav</t>
+          <t>trainingaudio/12_pokika3.wav</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -699,17 +699,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>trainingaudio/22_kakoki1.wav</t>
+          <t>trainingaudio/13_kopopi1.wav</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>trainingaudio/22_kakoki2.wav</t>
+          <t>trainingaudio/13_kopopi2.wav</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -719,17 +719,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>trainingaudio/07_pitapi3.wav</t>
+          <t>trainingaudio/23_patoko2.wav</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>trainingaudio/07_pitapi2.wav</t>
+          <t>trainingaudio/23_patoko1.wav</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -739,17 +739,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>trainingaudio/10_tokiti1.wav</t>
+          <t>trainingaudio/08_tipako2.wav</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>trainingaudio/10_tokiti3.wav</t>
+          <t>trainingaudio/08_tipako1.wav</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pngimages/10_backpack.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -759,17 +759,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>trainingaudio/08_tipako2.wav</t>
+          <t>trainingaudio/09_tipata2.wav</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>trainingaudio/08_tipako1.wav</t>
+          <t>trainingaudio/09_tipata3.wav</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/09_plane.png</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -779,37 +779,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>trainingaudio/25_tapapi3.wav</t>
+          <t>trainingaudio/21_papika1.wav</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>trainingaudio/25_tapapi1.wav</t>
+          <t>trainingaudio/21_papika3.wav</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>trainingaudio/21_papika1.wav</t>
+          <t>trainingaudio/10_tokiti1.wav</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>trainingaudio/21_papika3.wav</t>
+          <t>trainingaudio/10_tokiti3.wav</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -819,77 +819,77 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>trainingaudio/17_kotako2.wav</t>
+          <t>trainingaudio/05_titopo1.wav</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>trainingaudio/17_kotako1.wav</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>trainingaudio/26_kapako2.wav</t>
+          <t>trainingaudio/07_pitapi2.wav</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>trainingaudio/26_kapako1.wav</t>
+          <t>trainingaudio/07_pitapi3.wav</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>trainingaudio/23_patoko1.wav</t>
+          <t>trainingaudio/17_kotako1.wav</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>trainingaudio/23_patoko3.wav</t>
+          <t>trainingaudio/17_kotako2.wav</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>trainingaudio/01_kitipi3.wav</t>
+          <t>trainingaudio/11_tokiko2.wav</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>trainingaudio/01_kitipi1.wav</t>
+          <t>trainingaudio/11_tokiko1.wav</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/11_compass.png</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -899,37 +899,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>trainingaudio/13_kopopi3.wav</t>
+          <t>trainingaudio/02_pitito3.wav</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>trainingaudio/13_kopopi1.wav</t>
+          <t>trainingaudio/02_pitito2.wav</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>trainingaudio/06_titoka2.wav</t>
+          <t>trainingaudio/03_kikita2.wav</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>trainingaudio/06_titoka3.wav</t>
+          <t>trainingaudio/03_kikita3.wav</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -939,17 +939,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>trainingaudio/05_titopo2.wav</t>
+          <t>trainingaudio/01_kitipi1.wav</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>trainingaudio/05_titopo1.wav</t>
+          <t>trainingaudio/01_kitipi3.wav</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -959,17 +959,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>trainingaudio/16_kotapi2.wav</t>
+          <t>trainingaudio/27_pakapa1.wav</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>trainingaudio/16_kotapi1.wav</t>
+          <t>trainingaudio/27_pakapa2.wav</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -979,17 +979,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>trainingaudio/15_kopota1.wav</t>
+          <t>trainingaudio/22_kakoki2.wav</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>trainingaudio/15_kopota3.wav</t>
+          <t>trainingaudio/22_kakoki1.wav</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -999,97 +999,97 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata3.wav</t>
+          <t>trainingaudio/12_pokika3.wav</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata2.wav</t>
+          <t>trainingaudio/12_pokika2.wav</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>trainingaudio/23_patoko3.wav</t>
+          <t>trainingaudio/26_kapako1.wav</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>trainingaudio/23_patoko1.wav</t>
+          <t>trainingaudio/26_kapako3.wav</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>trainingaudio/10_tokiti3.wav</t>
+          <t>trainingaudio/03_kikita3.wav</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>trainingaudio/10_tokiti1.wav</t>
+          <t>trainingaudio/03_kikita2.wav</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>pngimages/10_backpack.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>trainingaudio/25_tapapi3.wav</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>trainingaudio/25_tapapi1.wav</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>trainingaudio/25_tapapi2.wav</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>pngimages/25_apple.png</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>trainingaudio/15_kopota3.wav</t>
+          <t>trainingaudio/16_kotapi2.wav</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>trainingaudio/15_kopota1.wav</t>
+          <t>trainingaudio/16_kotapi1.wav</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1099,17 +1099,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>trainingaudio/08_tipako1.wav</t>
+          <t>trainingaudio/11_tokiko2.wav</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>trainingaudio/08_tipako2.wav</t>
+          <t>trainingaudio/11_tokiko1.wav</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/11_compass.png</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1119,37 +1119,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>trainingaudio/13_kopopi1.wav</t>
+          <t>trainingaudio/19_papipi2.wav</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>trainingaudio/13_kopopi3.wav</t>
+          <t>trainingaudio/19_papipi1.wav</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>trainingaudio/24_takopa2.wav</t>
+          <t>trainingaudio/20_tatito3.wav</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>trainingaudio/24_takopa1.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1159,37 +1159,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>trainingaudio/09_tipata3.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>trainingaudio/09_tipata2.wav</t>
+          <t>trainingaudio/04_kitoti3.wav</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>pngimages/09_plane.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>trainingaudio/05_titopo1.wav</t>
+          <t>trainingaudio/13_kopopi2.wav</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>trainingaudio/05_titopo2.wav</t>
+          <t>trainingaudio/13_kopopi1.wav</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1199,17 +1199,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>trainingaudio/17_kotako1.wav</t>
+          <t>trainingaudio/07_pitapi1.wav</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>trainingaudio/17_kotako2.wav</t>
+          <t>trainingaudio/07_pitapi2.wav</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1219,17 +1219,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>trainingaudio/12_pokika3.wav</t>
+          <t>trainingaudio/10_tokiti1.wav</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>trainingaudio/12_pokika2.wav</t>
+          <t>trainingaudio/10_tokiti2.wav</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1239,17 +1239,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>trainingaudio/02_pitito1.wav</t>
+          <t>trainingaudio/08_tipako1.wav</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>trainingaudio/02_pitito3.wav</t>
+          <t>trainingaudio/08_tipako2.wav</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1259,77 +1259,77 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>trainingaudio/26_kapako3.wav</t>
+          <t>trainingaudio/14_pokoto1.wav</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>trainingaudio/26_kapako1.wav</t>
+          <t>trainingaudio/14_pokoto2.wav</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>trainingaudio/07_pitapi3.wav</t>
+          <t>trainingaudio/02_pitito3.wav</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>trainingaudio/07_pitapi2.wav</t>
+          <t>trainingaudio/02_pitito1.wav</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>trainingaudio/22_kakoki2.wav</t>
+          <t>trainingaudio/09_tipata2.wav</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>trainingaudio/22_kakoki1.wav</t>
+          <t>trainingaudio/09_tipata3.wav</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/09_plane.png</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>trainingaudio/06_titoka3.wav</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>trainingaudio/06_titoka1.wav</t>
+          <t>trainingaudio/05_titopo3.wav</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1339,37 +1339,37 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>trainingaudio/20_tatito1.wav</t>
+          <t>trainingaudio/27_pakapa2.wav</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>trainingaudio/20_tatito3.wav</t>
+          <t>trainingaudio/27_pakapa1.wav</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>trainingaudio/19_papipi3.wav</t>
+          <t>trainingaudio/17_kotako1.wav</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>trainingaudio/19_papipi1.wav</t>
+          <t>trainingaudio/17_kotako2.wav</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1379,17 +1379,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>trainingaudio/11_tokiko1.wav</t>
+          <t>trainingaudio/22_kakoki1.wav</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>trainingaudio/11_tokiko3.wav</t>
+          <t>trainingaudio/22_kakoki2.wav</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1399,37 +1399,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>trainingaudio/01_kitipi1.wav</t>
+          <t>trainingaudio/24_takopa3.wav</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>trainingaudio/01_kitipi3.wav</t>
+          <t>trainingaudio/24_takopa1.wav</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>trainingaudio/27_pakapa3.wav</t>
+          <t>trainingaudio/23_patoko2.wav</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>trainingaudio/27_pakapa1.wav</t>
+          <t>trainingaudio/23_patoko1.wav</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1439,37 +1439,37 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>trainingaudio/16_kotapi1.wav</t>
+          <t>trainingaudio/15_kopota3.wav</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>trainingaudio/16_kotapi2.wav</t>
+          <t>trainingaudio/15_kopota2.wav</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>trainingaudio/21_papika2.wav</t>
+          <t>trainingaudio/06_titoka2.wav</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>trainingaudio/21_papika1.wav</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1479,17 +1479,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>trainingaudio/03_kikita3.wav</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>trainingaudio/03_kikita2.wav</t>
+          <t>trainingaudio/18_popata3.wav</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1499,17 +1499,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>trainingaudio/04_kitoti2.wav</t>
+          <t>trainingaudio/21_papika1.wav</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>trainingaudio/04_kitoti3.wav</t>
+          <t>trainingaudio/21_papika2.wav</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1519,21 +1519,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>trainingaudio/14_pokoto2.wav</t>
+          <t>trainingaudio/01_kitipi1.wav</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>trainingaudio/14_pokoto1.wav</t>
+          <t>trainingaudio/01_kitipi2.wav</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
